--- a/data/files/prod_barcod_short.xlsx
+++ b/data/files/prod_barcod_short.xlsx
@@ -250,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -273,15 +273,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +631,7 @@
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +659,9 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>21</v>
       </c>
@@ -648,11 +686,12 @@
       <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>27000217</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -677,11 +716,12 @@
       <c r="H3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="6">
         <v>27000258</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>34</v>
       </c>
@@ -706,11 +746,12 @@
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>4011100091109</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>51</v>
       </c>
@@ -738,8 +779,9 @@
       <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>52</v>
       </c>
@@ -767,8 +809,9 @@
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>53</v>
       </c>
@@ -796,8 +839,9 @@
       <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>55</v>
       </c>
@@ -825,8 +869,9 @@
       <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -854,8 +899,9 @@
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -883,8 +929,9 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>76</v>
       </c>
@@ -912,8 +959,9 @@
       <c r="I11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>117</v>
       </c>
@@ -941,8 +989,9 @@
       <c r="I12" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>118</v>
       </c>
@@ -970,8 +1019,9 @@
       <c r="I13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>119</v>
       </c>
@@ -999,8 +1049,9 @@
       <c r="I14" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>168</v>
       </c>
@@ -1028,8 +1079,9 @@
       <c r="I15" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>179</v>
       </c>
@@ -1057,8 +1109,9 @@
       <c r="I16" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>208</v>
       </c>
@@ -1086,8 +1139,9 @@
       <c r="I17" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>260</v>
       </c>
@@ -1115,8 +1169,9 @@
       <c r="I18" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>314</v>
       </c>
@@ -1144,6 +1199,7 @@
       <c r="I19" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="J19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
